--- a/user-data/number-of-surveys/number-of-surveys.xlsx
+++ b/user-data/number-of-surveys/number-of-surveys.xlsx
@@ -93,46 +93,46 @@
     <t>Burundi</t>
   </si>
   <si>
+    <t>CM</t>
+  </si>
+  <si>
+    <t>Cameroon</t>
+  </si>
+  <si>
+    <t>CV</t>
+  </si>
+  <si>
+    <t>Cape Verde</t>
+  </si>
+  <si>
+    <t>CF</t>
+  </si>
+  <si>
+    <t>CAR</t>
+  </si>
+  <si>
+    <t>TD</t>
+  </si>
+  <si>
+    <t>Chad</t>
+  </si>
+  <si>
+    <t>KM</t>
+  </si>
+  <si>
+    <t>Comoros</t>
+  </si>
+  <si>
+    <t>CG</t>
+  </si>
+  <si>
+    <t>Congo</t>
+  </si>
+  <si>
     <t>CI</t>
   </si>
   <si>
-    <t>CÃ´te d'Ivoire</t>
-  </si>
-  <si>
-    <t>CM</t>
-  </si>
-  <si>
-    <t>Cameroon</t>
-  </si>
-  <si>
-    <t>CV</t>
-  </si>
-  <si>
-    <t>Cape Verde</t>
-  </si>
-  <si>
-    <t>CF</t>
-  </si>
-  <si>
-    <t>CAR</t>
-  </si>
-  <si>
-    <t>TD</t>
-  </si>
-  <si>
-    <t>Chad</t>
-  </si>
-  <si>
-    <t>KM</t>
-  </si>
-  <si>
-    <t>Comoros</t>
-  </si>
-  <si>
-    <t>CG</t>
-  </si>
-  <si>
-    <t>Congo</t>
+    <t>Cote d'Ivoire</t>
   </si>
   <si>
     <t>DJ</t>
@@ -294,7 +294,7 @@
     <t>ST</t>
   </si>
   <si>
-    <t>Sao Tome and Principe</t>
+    <t>Sao Tome &amp; Principe</t>
   </si>
   <si>
     <t>SN</t>
@@ -426,7 +426,7 @@
     <t>For concerns, questions, or corrections: please email info@devinit.org</t>
   </si>
   <si>
-    <t>Copyright Development Initiatives Poverty Research Ltd. 2015</t>
+    <t>Copyright Development Initiatives Poverty Research Ltd. 2016</t>
   </si>
 </sst>
 </file>
@@ -1030,10 +1030,10 @@
         <v>31</v>
       </c>
       <c r="C10" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="D10" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="E10" t="s">
         <v>10</v>
@@ -1050,10 +1050,10 @@
         <v>33</v>
       </c>
       <c r="C11" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D11" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="E11" t="s">
         <v>10</v>
@@ -1070,10 +1070,10 @@
         <v>35</v>
       </c>
       <c r="C12" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="D12" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="E12" t="s">
         <v>10</v>
@@ -1090,10 +1090,10 @@
         <v>37</v>
       </c>
       <c r="C13" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="D13" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="E13" t="s">
         <v>10</v>
@@ -1110,10 +1110,10 @@
         <v>39</v>
       </c>
       <c r="C14" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="D14" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="E14" t="s">
         <v>10</v>

--- a/user-data/number-of-surveys/number-of-surveys.xlsx
+++ b/user-data/number-of-surveys/number-of-surveys.xlsx
@@ -33,22 +33,49 @@
     <t xml:space="preserve">source-link</t>
   </si>
   <si>
+    <t xml:space="preserve">DZ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Algeria</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Red</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Less than 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">World Bank Statistical Capacity Indicators</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://databank.worldbank.org/data/reports.aspx?source=Statistical-capacity-indicators#</t>
+  </si>
+  <si>
     <t xml:space="preserve">AO</t>
   </si>
   <si>
     <t xml:space="preserve">Angola</t>
   </si>
   <si>
-    <t xml:space="preserve">Red</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Less than 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">World Bank Statistical Capacity Indicators</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://databank.worldbank.org/data/reports.aspx?source=Statistical-capacity-indicators#</t>
+    <t xml:space="preserve">BJ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Benin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">More than 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BW</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Botswana</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Orange</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2</t>
   </si>
   <si>
     <t xml:space="preserve">BF</t>
@@ -60,31 +87,58 @@
     <t xml:space="preserve">Green</t>
   </si>
   <si>
-    <t xml:space="preserve">More than 2</t>
-  </si>
-  <si>
     <t xml:space="preserve">BI</t>
   </si>
   <si>
     <t xml:space="preserve">Burundi</t>
   </si>
   <si>
-    <t xml:space="preserve">BJ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Benin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BW</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Botswana</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Orange</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2</t>
+    <t xml:space="preserve">CM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cameroon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CV</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cape Verde</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CAR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chad</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Comoros</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Congo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Côte d'Ivoire</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DJ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Djibouti</t>
   </si>
   <si>
     <t xml:space="preserve">CD</t>
@@ -93,54 +147,228 @@
     <t xml:space="preserve">DRC</t>
   </si>
   <si>
-    <t xml:space="preserve">CF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CAR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Congo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Côte d'Ivoire</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cameroon</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CV</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cape Verde</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DJ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Djibouti</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DZ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Algeria</t>
-  </si>
-  <si>
     <t xml:space="preserve">EG</t>
   </si>
   <si>
     <t xml:space="preserve">Egypt</t>
   </si>
   <si>
+    <t xml:space="preserve">GQ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Equatorial Guinea</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eritrea</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ET</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ethiopia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gabon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gambia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ghana</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Guinea</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GW</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Guinea-Bissau</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kenya</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lesotho</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Liberia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Libya</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Madagascar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MW</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Malawi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ML</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mali</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mauritania</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mauritius</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Morocco</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MZ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mozambique</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Namibia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Niger</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nigeria</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RW</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rwanda</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ST</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sao Tome &amp; Principe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Senegal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Seychelles</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sierra Leone</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Somalia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ZA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">South Africa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">South Sudan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sudan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SZ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Swaziland</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TZ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tanzania</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Togo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tunisia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Uganda</t>
+  </si>
+  <si>
     <t xml:space="preserve">EH</t>
   </si>
   <si>
@@ -154,234 +382,6 @@
   </si>
   <si>
     <t xml:space="preserve">No Information</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ER</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Eritrea</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ET</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ethiopia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gabon</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GH</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ghana</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gambia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Guinea</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GQ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Equatorial Guinea</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GW</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Guinea-Bissau</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kenya</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Comoros</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Liberia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lesotho</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LY</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Libya</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Morocco</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Madagascar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ML</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mali</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mauritania</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MU</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mauritius</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MW</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Malawi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MZ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mozambique</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Namibia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Niger</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nigeria</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RW</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rwanda</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Seychelles</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sudan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sierra Leone</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Senegal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Somalia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">South Sudan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ST</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sao Tome &amp; Principe</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SZ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Swaziland</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chad</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Togo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tunisia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TZ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tanzania</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Uganda</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ZA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">South Africa</t>
   </si>
   <si>
     <t xml:space="preserve">ZM</t>
@@ -894,10 +894,10 @@
         <v>13</v>
       </c>
       <c r="C3" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="D3" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="E3" t="s">
         <v>10</v>
@@ -908,16 +908,16 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C4" t="s">
         <v>8</v>
       </c>
       <c r="D4" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="E4" t="s">
         <v>10</v>
@@ -928,16 +928,16 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" t="s">
         <v>18</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>19</v>
       </c>
-      <c r="C5" t="s">
-        <v>8</v>
-      </c>
       <c r="D5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="E5" t="s">
         <v>10</v>
@@ -948,16 +948,16 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D6" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="E6" t="s">
         <v>10</v>
@@ -974,10 +974,10 @@
         <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="D7" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="E7" t="s">
         <v>10</v>
@@ -994,10 +994,10 @@
         <v>27</v>
       </c>
       <c r="C8" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="D8" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="E8" t="s">
         <v>10</v>
@@ -1014,10 +1014,10 @@
         <v>29</v>
       </c>
       <c r="C9" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="D9" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="E9" t="s">
         <v>10</v>
@@ -1034,10 +1034,10 @@
         <v>31</v>
       </c>
       <c r="C10" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="D10" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="E10" t="s">
         <v>10</v>
@@ -1054,10 +1054,10 @@
         <v>33</v>
       </c>
       <c r="C11" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="D11" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="E11" t="s">
         <v>10</v>
@@ -1094,10 +1094,10 @@
         <v>37</v>
       </c>
       <c r="C13" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="D13" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="E13" t="s">
         <v>10</v>
@@ -1134,10 +1134,10 @@
         <v>41</v>
       </c>
       <c r="C15" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="D15" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="E15" t="s">
         <v>10</v>
@@ -1154,28 +1154,30 @@
         <v>43</v>
       </c>
       <c r="C16" t="s">
-        <v>44</v>
+        <v>19</v>
       </c>
       <c r="D16" t="s">
-        <v>45</v>
-      </c>
-      <c r="E16"/>
+        <v>20</v>
+      </c>
+      <c r="E16" t="s">
+        <v>10</v>
+      </c>
       <c r="F16" t="s">
-        <v>46</v>
+        <v>11</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B17" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C17" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="D17" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="E17" t="s">
         <v>10</v>
@@ -1186,16 +1188,16 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B18" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C18" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="D18" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="E18" t="s">
         <v>10</v>
@@ -1206,10 +1208,10 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B19" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C19" t="s">
         <v>8</v>
@@ -1226,16 +1228,16 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B20" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C20" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="D20" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="E20" t="s">
         <v>10</v>
@@ -1246,16 +1248,16 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B21" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C21" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="D21" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="E21" t="s">
         <v>10</v>
@@ -1266,16 +1268,16 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B22" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C22" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D22" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E22" t="s">
         <v>10</v>
@@ -1286,10 +1288,10 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B23" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C23" t="s">
         <v>8</v>
@@ -1306,16 +1308,16 @@
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B24" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C24" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="D24" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="E24" t="s">
         <v>10</v>
@@ -1326,16 +1328,16 @@
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B25" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C25" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="D25" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="E25" t="s">
         <v>10</v>
@@ -1346,16 +1348,16 @@
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B26" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C26" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="D26" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="E26" t="s">
         <v>10</v>
@@ -1366,16 +1368,16 @@
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B27" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C27" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D27" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E27" t="s">
         <v>10</v>
@@ -1386,16 +1388,16 @@
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B28" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C28" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D28" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E28" t="s">
         <v>10</v>
@@ -1406,10 +1408,10 @@
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B29" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C29" t="s">
         <v>8</v>
@@ -1426,16 +1428,16 @@
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B30" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C30" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D30" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="E30" t="s">
         <v>10</v>
@@ -1446,16 +1448,16 @@
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B31" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C31" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="D31" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E31" t="s">
         <v>10</v>
@@ -1466,16 +1468,16 @@
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B32" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C32" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="D32" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E32" t="s">
         <v>10</v>
@@ -1486,16 +1488,16 @@
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B33" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C33" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D33" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E33" t="s">
         <v>10</v>
@@ -1506,16 +1508,16 @@
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B34" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C34" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="D34" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E34" t="s">
         <v>10</v>
@@ -1526,16 +1528,16 @@
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B35" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C35" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="D35" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="E35" t="s">
         <v>10</v>
@@ -1546,16 +1548,16 @@
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B36" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C36" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D36" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E36" t="s">
         <v>10</v>
@@ -1566,16 +1568,16 @@
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B37" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C37" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D37" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E37" t="s">
         <v>10</v>
@@ -1586,16 +1588,16 @@
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B38" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C38" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="D38" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E38" t="s">
         <v>10</v>
@@ -1606,16 +1608,16 @@
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B39" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C39" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="D39" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E39" t="s">
         <v>10</v>
@@ -1626,16 +1628,16 @@
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B40" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C40" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="D40" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E40" t="s">
         <v>10</v>
@@ -1646,16 +1648,16 @@
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B41" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C41" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="D41" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="E41" t="s">
         <v>10</v>
@@ -1666,16 +1668,16 @@
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="B42" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C42" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="D42" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="E42" t="s">
         <v>10</v>
@@ -1686,16 +1688,16 @@
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B43" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C43" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="D43" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="E43" t="s">
         <v>10</v>
@@ -1706,16 +1708,16 @@
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B44" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C44" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="D44" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E44" t="s">
         <v>10</v>
@@ -1726,10 +1728,10 @@
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B45" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C45" t="s">
         <v>8</v>
@@ -1746,16 +1748,16 @@
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B46" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C46" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="D46" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="E46" t="s">
         <v>10</v>
@@ -1766,16 +1768,16 @@
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B47" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C47" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="D47" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="E47" t="s">
         <v>10</v>
@@ -1786,10 +1788,10 @@
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B48" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="C48" t="s">
         <v>8</v>
@@ -1806,16 +1808,16 @@
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B49" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C49" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="D49" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="E49" t="s">
         <v>10</v>
@@ -1826,16 +1828,16 @@
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="B50" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C50" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D50" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="E50" t="s">
         <v>10</v>
@@ -1846,16 +1848,16 @@
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B51" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C51" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D51" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E51" t="s">
         <v>10</v>
@@ -1866,16 +1868,16 @@
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="B52" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C52" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="D52" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="E52" t="s">
         <v>10</v>
@@ -1886,16 +1888,16 @@
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="B53" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="C53" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="D53" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E53" t="s">
         <v>10</v>
@@ -1906,22 +1908,20 @@
     </row>
     <row r="54">
       <c r="A54" t="s">
+        <v>118</v>
+      </c>
+      <c r="B54" t="s">
+        <v>119</v>
+      </c>
+      <c r="C54" t="s">
+        <v>120</v>
+      </c>
+      <c r="D54" t="s">
         <v>121</v>
       </c>
-      <c r="B54" t="s">
+      <c r="E54"/>
+      <c r="F54" t="s">
         <v>122</v>
-      </c>
-      <c r="C54" t="s">
-        <v>14</v>
-      </c>
-      <c r="D54" t="s">
-        <v>15</v>
-      </c>
-      <c r="E54" t="s">
-        <v>10</v>
-      </c>
-      <c r="F54" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="55">
@@ -1932,10 +1932,10 @@
         <v>124</v>
       </c>
       <c r="C55" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="D55" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E55" t="s">
         <v>10</v>
@@ -1952,10 +1952,10 @@
         <v>126</v>
       </c>
       <c r="C56" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="D56" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E56" t="s">
         <v>10</v>

--- a/user-data/number-of-surveys/number-of-surveys.xlsx
+++ b/user-data/number-of-surveys/number-of-surveys.xlsx
@@ -33,22 +33,49 @@
     <t xml:space="preserve">source-link</t>
   </si>
   <si>
+    <t xml:space="preserve">DZ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Algeria</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Red</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Less than 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">World Bank Statistical Capacity Indicators</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://databank.worldbank.org/data/reports.aspx?source=Statistical-capacity-indicators#</t>
+  </si>
+  <si>
     <t xml:space="preserve">AO</t>
   </si>
   <si>
     <t xml:space="preserve">Angola</t>
   </si>
   <si>
-    <t xml:space="preserve">Red</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Less than 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">World Bank Statistical Capacity Indicators</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://databank.worldbank.org/data/reports.aspx?source=Statistical-capacity-indicators#</t>
+    <t xml:space="preserve">BJ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Benin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">More than 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BW</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Botswana</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Orange</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2</t>
   </si>
   <si>
     <t xml:space="preserve">BF</t>
@@ -60,31 +87,58 @@
     <t xml:space="preserve">Green</t>
   </si>
   <si>
-    <t xml:space="preserve">More than 2</t>
-  </si>
-  <si>
     <t xml:space="preserve">BI</t>
   </si>
   <si>
     <t xml:space="preserve">Burundi</t>
   </si>
   <si>
-    <t xml:space="preserve">BJ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Benin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BW</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Botswana</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Orange</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2</t>
+    <t xml:space="preserve">CI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CÃ´te d'Ivoire</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cameroon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CV</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cape Verde</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CAR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chad</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Comoros</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Congo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DJ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Djibouti</t>
   </si>
   <si>
     <t xml:space="preserve">CD</t>
@@ -93,54 +147,228 @@
     <t xml:space="preserve">DRC</t>
   </si>
   <si>
-    <t xml:space="preserve">CF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CAR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Congo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Côte d'Ivoire</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cameroon</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CV</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cape Verde</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DJ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Djibouti</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DZ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Algeria</t>
-  </si>
-  <si>
     <t xml:space="preserve">EG</t>
   </si>
   <si>
     <t xml:space="preserve">Egypt</t>
   </si>
   <si>
+    <t xml:space="preserve">GQ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Equatorial Guinea</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eritrea</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ET</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ethiopia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gabon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gambia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ghana</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Guinea</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GW</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Guinea-Bissau</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kenya</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lesotho</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Liberia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Libya</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Madagascar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MW</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Malawi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ML</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mali</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mauritania</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mauritius</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Morocco</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MZ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mozambique</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Namibia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Niger</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nigeria</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RW</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rwanda</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ST</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sao Tome &amp; Principe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Senegal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Seychelles</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sierra Leone</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Somalia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ZA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">South Africa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">South Sudan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sudan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SZ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Swaziland</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TZ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tanzania</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Togo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tunisia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Uganda</t>
+  </si>
+  <si>
     <t xml:space="preserve">EH</t>
   </si>
   <si>
@@ -154,234 +382,6 @@
   </si>
   <si>
     <t xml:space="preserve">No Information</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ER</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Eritrea</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ET</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ethiopia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gabon</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GH</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ghana</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gambia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Guinea</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GQ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Equatorial Guinea</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GW</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Guinea-Bissau</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kenya</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Comoros</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Liberia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lesotho</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LY</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Libya</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Morocco</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Madagascar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ML</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mali</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mauritania</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MU</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mauritius</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MW</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Malawi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MZ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mozambique</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Namibia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Niger</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nigeria</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RW</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rwanda</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Seychelles</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sudan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sierra Leone</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Senegal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Somalia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">South Sudan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ST</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sao Tome &amp; Principe</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SZ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Swaziland</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chad</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Togo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tunisia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TZ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tanzania</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Uganda</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ZA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">South Africa</t>
   </si>
   <si>
     <t xml:space="preserve">ZM</t>
@@ -894,10 +894,10 @@
         <v>13</v>
       </c>
       <c r="C3" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="D3" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="E3" t="s">
         <v>10</v>
@@ -908,16 +908,16 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C4" t="s">
         <v>8</v>
       </c>
       <c r="D4" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="E4" t="s">
         <v>10</v>
@@ -928,16 +928,16 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" t="s">
         <v>18</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>19</v>
       </c>
-      <c r="C5" t="s">
-        <v>8</v>
-      </c>
       <c r="D5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="E5" t="s">
         <v>10</v>
@@ -948,16 +948,16 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D6" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="E6" t="s">
         <v>10</v>
@@ -974,10 +974,10 @@
         <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="D7" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="E7" t="s">
         <v>10</v>
@@ -994,10 +994,10 @@
         <v>27</v>
       </c>
       <c r="C8" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="D8" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="E8" t="s">
         <v>10</v>
@@ -1014,10 +1014,10 @@
         <v>29</v>
       </c>
       <c r="C9" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="D9" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="E9" t="s">
         <v>10</v>
@@ -1054,10 +1054,10 @@
         <v>33</v>
       </c>
       <c r="C11" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="D11" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="E11" t="s">
         <v>10</v>
@@ -1074,10 +1074,10 @@
         <v>35</v>
       </c>
       <c r="C12" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="D12" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="E12" t="s">
         <v>10</v>
@@ -1114,10 +1114,10 @@
         <v>39</v>
       </c>
       <c r="C14" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="D14" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="E14" t="s">
         <v>10</v>
@@ -1134,10 +1134,10 @@
         <v>41</v>
       </c>
       <c r="C15" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="D15" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="E15" t="s">
         <v>10</v>
@@ -1154,28 +1154,30 @@
         <v>43</v>
       </c>
       <c r="C16" t="s">
-        <v>44</v>
+        <v>19</v>
       </c>
       <c r="D16" t="s">
-        <v>45</v>
-      </c>
-      <c r="E16"/>
+        <v>20</v>
+      </c>
+      <c r="E16" t="s">
+        <v>10</v>
+      </c>
       <c r="F16" t="s">
-        <v>46</v>
+        <v>11</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B17" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C17" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="D17" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="E17" t="s">
         <v>10</v>
@@ -1186,16 +1188,16 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B18" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C18" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="D18" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="E18" t="s">
         <v>10</v>
@@ -1206,10 +1208,10 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B19" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C19" t="s">
         <v>8</v>
@@ -1226,16 +1228,16 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B20" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C20" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="D20" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="E20" t="s">
         <v>10</v>
@@ -1246,16 +1248,16 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B21" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C21" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="D21" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="E21" t="s">
         <v>10</v>
@@ -1266,16 +1268,16 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B22" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C22" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D22" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E22" t="s">
         <v>10</v>
@@ -1286,10 +1288,10 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B23" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C23" t="s">
         <v>8</v>
@@ -1306,16 +1308,16 @@
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B24" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C24" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="D24" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="E24" t="s">
         <v>10</v>
@@ -1326,16 +1328,16 @@
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B25" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C25" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="D25" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="E25" t="s">
         <v>10</v>
@@ -1346,16 +1348,16 @@
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B26" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C26" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="D26" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="E26" t="s">
         <v>10</v>
@@ -1366,16 +1368,16 @@
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B27" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C27" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D27" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E27" t="s">
         <v>10</v>
@@ -1386,16 +1388,16 @@
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B28" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C28" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D28" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E28" t="s">
         <v>10</v>
@@ -1406,10 +1408,10 @@
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B29" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C29" t="s">
         <v>8</v>
@@ -1426,16 +1428,16 @@
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B30" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C30" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D30" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="E30" t="s">
         <v>10</v>
@@ -1446,16 +1448,16 @@
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B31" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C31" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="D31" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E31" t="s">
         <v>10</v>
@@ -1466,16 +1468,16 @@
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B32" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C32" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="D32" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E32" t="s">
         <v>10</v>
@@ -1486,16 +1488,16 @@
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B33" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C33" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D33" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E33" t="s">
         <v>10</v>
@@ -1506,16 +1508,16 @@
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B34" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C34" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="D34" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E34" t="s">
         <v>10</v>
@@ -1526,16 +1528,16 @@
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B35" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C35" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="D35" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="E35" t="s">
         <v>10</v>
@@ -1546,16 +1548,16 @@
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B36" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C36" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D36" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E36" t="s">
         <v>10</v>
@@ -1566,16 +1568,16 @@
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B37" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C37" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D37" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E37" t="s">
         <v>10</v>
@@ -1586,16 +1588,16 @@
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B38" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C38" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="D38" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E38" t="s">
         <v>10</v>
@@ -1606,16 +1608,16 @@
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B39" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C39" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="D39" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E39" t="s">
         <v>10</v>
@@ -1626,16 +1628,16 @@
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B40" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C40" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="D40" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E40" t="s">
         <v>10</v>
@@ -1646,16 +1648,16 @@
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B41" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C41" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="D41" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="E41" t="s">
         <v>10</v>
@@ -1666,16 +1668,16 @@
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="B42" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C42" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="D42" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="E42" t="s">
         <v>10</v>
@@ -1686,16 +1688,16 @@
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B43" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C43" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="D43" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="E43" t="s">
         <v>10</v>
@@ -1706,16 +1708,16 @@
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B44" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C44" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="D44" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E44" t="s">
         <v>10</v>
@@ -1726,10 +1728,10 @@
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B45" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C45" t="s">
         <v>8</v>
@@ -1746,16 +1748,16 @@
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B46" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C46" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="D46" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="E46" t="s">
         <v>10</v>
@@ -1766,16 +1768,16 @@
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B47" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C47" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="D47" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="E47" t="s">
         <v>10</v>
@@ -1786,10 +1788,10 @@
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B48" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="C48" t="s">
         <v>8</v>
@@ -1806,16 +1808,16 @@
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B49" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C49" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="D49" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="E49" t="s">
         <v>10</v>
@@ -1826,16 +1828,16 @@
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="B50" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C50" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D50" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="E50" t="s">
         <v>10</v>
@@ -1846,16 +1848,16 @@
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B51" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C51" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D51" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E51" t="s">
         <v>10</v>
@@ -1866,16 +1868,16 @@
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="B52" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C52" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="D52" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="E52" t="s">
         <v>10</v>
@@ -1886,16 +1888,16 @@
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="B53" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="C53" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="D53" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E53" t="s">
         <v>10</v>
@@ -1906,22 +1908,20 @@
     </row>
     <row r="54">
       <c r="A54" t="s">
+        <v>118</v>
+      </c>
+      <c r="B54" t="s">
+        <v>119</v>
+      </c>
+      <c r="C54" t="s">
+        <v>120</v>
+      </c>
+      <c r="D54" t="s">
         <v>121</v>
       </c>
-      <c r="B54" t="s">
+      <c r="E54"/>
+      <c r="F54" t="s">
         <v>122</v>
-      </c>
-      <c r="C54" t="s">
-        <v>14</v>
-      </c>
-      <c r="D54" t="s">
-        <v>15</v>
-      </c>
-      <c r="E54" t="s">
-        <v>10</v>
-      </c>
-      <c r="F54" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="55">
@@ -1932,10 +1932,10 @@
         <v>124</v>
       </c>
       <c r="C55" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="D55" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E55" t="s">
         <v>10</v>
@@ -1952,10 +1952,10 @@
         <v>126</v>
       </c>
       <c r="C56" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="D56" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E56" t="s">
         <v>10</v>

--- a/user-data/number-of-surveys/number-of-surveys.xlsx
+++ b/user-data/number-of-surveys/number-of-surveys.xlsx
@@ -15,10 +15,10 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="139">
   <si>
-    <t xml:space="preserve">id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">entity-name</t>
+    <t xml:space="preserve">di_id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">entity_name</t>
   </si>
   <si>
     <t xml:space="preserve">colour</t>
@@ -27,10 +27,10 @@
     <t xml:space="preserve">detail</t>
   </si>
   <si>
-    <t xml:space="preserve">source-title</t>
-  </si>
-  <si>
-    <t xml:space="preserve">source-link</t>
+    <t xml:space="preserve">source_title</t>
+  </si>
+  <si>
+    <t xml:space="preserve">source_link</t>
   </si>
   <si>
     <t xml:space="preserve">DZ</t>
@@ -39,7 +39,7 @@
     <t xml:space="preserve">Algeria</t>
   </si>
   <si>
-    <t xml:space="preserve">Red</t>
+    <t xml:space="preserve">red</t>
   </si>
   <si>
     <t xml:space="preserve">Less than 2</t>
@@ -72,7 +72,7 @@
     <t xml:space="preserve">Botswana</t>
   </si>
   <si>
-    <t xml:space="preserve">Orange</t>
+    <t xml:space="preserve">orange</t>
   </si>
   <si>
     <t xml:space="preserve">2</t>
@@ -84,7 +84,7 @@
     <t xml:space="preserve">Burkina Faso</t>
   </si>
   <si>
-    <t xml:space="preserve">Green</t>
+    <t xml:space="preserve">green</t>
   </si>
   <si>
     <t xml:space="preserve">BI</t>
@@ -93,46 +93,46 @@
     <t xml:space="preserve">Burundi</t>
   </si>
   <si>
+    <t xml:space="preserve">CM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cameroon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CV</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cape Verde</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CAR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chad</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Comoros</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Congo</t>
+  </si>
+  <si>
     <t xml:space="preserve">CI</t>
   </si>
   <si>
-    <t xml:space="preserve">CÃ´te d'Ivoire</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cameroon</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CV</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cape Verde</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CAR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chad</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Comoros</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Congo</t>
+    <t xml:space="preserve">Côte d'Ivoire</t>
   </si>
   <si>
     <t xml:space="preserve">DJ</t>
@@ -375,7 +375,7 @@
     <t xml:space="preserve">Western Sahara</t>
   </si>
   <si>
-    <t xml:space="preserve">Grey</t>
+    <t xml:space="preserve">grey</t>
   </si>
   <si>
     <t xml:space="preserve">No information</t>
@@ -399,37 +399,37 @@
     <t xml:space="preserve">Name: number-of-surveys</t>
   </si>
   <si>
-    <t xml:space="preserve">Description: Poverty surveys collect data on household income, consumption and expenditure, including income in kind. They typically include income, expenditure, and consumption surveys, household budget surveys, Integrated Surveys, Living Standard Measuring Surveys, and other poverty related surveys.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Units of measure: NA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Source: World Bank Statistical Capacity Indicators (2014).</t>
+    <t xml:space="preserve">Description: Poverty surveys collect data on household income, consumption and expenditure, including income in kind. They typically include income, expenditure, and consumption surveys, household budget surveys, Integrated Surveys, Living Standard Measuring Surveys, and other poverty related surveys</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Units of measure:  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Source: 81</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Source-link: 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve"/>
   </si>
   <si>
     <t xml:space="preserve">Notes:</t>
   </si>
   <si>
-    <t xml:space="preserve"/>
-  </si>
-  <si>
-    <t xml:space="preserve">The following is data downloaded from Development Initiative's Datahub: http://data.devinit.org.</t>
+    <t xml:space="preserve">The following is data downloaded from Development Initiative's Datahub: http://devinit.org/data</t>
   </si>
   <si>
     <t xml:space="preserve">It is licensed under a Creative Commons Attribution 4.0 International license.</t>
   </si>
   <si>
-    <t xml:space="preserve">More information on licensing is available here: https://creativecommons.org/licenses/by/4.0/.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">For concerns, questions, or corrections: please email info@devinit.org.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">If you experience any technical issues when opening the .xlsx and/or the .csv and/or the .zip files please contact info@devinit.org.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Copyright Development Initiatives Poverty Research Ltd. 2017.</t>
+    <t xml:space="preserve">More information on licensing is available here: https://creativecommons.org/licenses/by/4.0/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">For concerns, questions, or corrections: please email info@devinit.org</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Copyright Development Initiatives Poverty Research Ltd. 2018</t>
   </si>
 </sst>
 </file>
@@ -782,15 +782,19 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5"/>
+      <c r="A5" t="s">
+        <v>131</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7"/>
+      <c r="A7" t="s">
+        <v>133</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
@@ -804,31 +808,26 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="s">
         <v>138</v>
       </c>
     </row>
@@ -1034,10 +1033,10 @@
         <v>31</v>
       </c>
       <c r="C10" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="D10" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="E10" t="s">
         <v>10</v>
@@ -1054,10 +1053,10 @@
         <v>33</v>
       </c>
       <c r="C11" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D11" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="E11" t="s">
         <v>10</v>
@@ -1074,10 +1073,10 @@
         <v>35</v>
       </c>
       <c r="C12" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="D12" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="E12" t="s">
         <v>10</v>
@@ -1094,10 +1093,10 @@
         <v>37</v>
       </c>
       <c r="C13" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="D13" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="E13" t="s">
         <v>10</v>
@@ -1114,10 +1113,10 @@
         <v>39</v>
       </c>
       <c r="C14" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="D14" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="E14" t="s">
         <v>10</v>

--- a/user-data/number-of-surveys/number-of-surveys.xlsx
+++ b/user-data/number-of-surveys/number-of-surveys.xlsx
@@ -405,7 +405,7 @@
     <t xml:space="preserve">Units of measure:  </t>
   </si>
   <si>
-    <t xml:space="preserve">Source: 81</t>
+    <t xml:space="preserve">Source: 82</t>
   </si>
   <si>
     <t xml:space="preserve">Source-link: 1</t>

--- a/user-data/number-of-surveys/number-of-surveys.xlsx
+++ b/user-data/number-of-surveys/number-of-surveys.xlsx
@@ -405,7 +405,7 @@
     <t xml:space="preserve">Units of measure:  </t>
   </si>
   <si>
-    <t xml:space="preserve">Source: 82</t>
+    <t xml:space="preserve">Source: 84</t>
   </si>
   <si>
     <t xml:space="preserve">Source-link: 1</t>

--- a/user-data/number-of-surveys/number-of-surveys.xlsx
+++ b/user-data/number-of-surveys/number-of-surveys.xlsx
@@ -405,7 +405,7 @@
     <t xml:space="preserve">Units of measure:  </t>
   </si>
   <si>
-    <t xml:space="preserve">Source: 81</t>
+    <t xml:space="preserve">Source: 84</t>
   </si>
   <si>
     <t xml:space="preserve">Source-link: 1</t>

--- a/user-data/number-of-surveys/number-of-surveys.xlsx
+++ b/user-data/number-of-surveys/number-of-surveys.xlsx
@@ -405,7 +405,7 @@
     <t xml:space="preserve">Units of measure:  </t>
   </si>
   <si>
-    <t xml:space="preserve">Source: 84</t>
+    <t xml:space="preserve">Source: 83</t>
   </si>
   <si>
     <t xml:space="preserve">Source-link: 1</t>
